--- a/dmn/test/new_UserQualifications-MasterGlobalDef304_test.xlsx
+++ b/dmn/test/new_UserQualifications-MasterGlobalDef304_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauriziocaronni/Projects/DmnEngine/dmn/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0B251F-68F5-E241-BDF6-B482D13F45BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD5B8E0-6EC6-3048-856E-4CC35E1FCE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4480" yWindow="500" windowWidth="31360" windowHeight="20200" xr2:uid="{E34855F7-CB3F-8345-982A-7C4A7DDB4B0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>ED</t>
   </si>
@@ -114,18 +114,117 @@
   </si>
   <si>
     <t>CZ</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>AXA</t>
+  </si>
+  <si>
+    <t>Atto vandalico</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>MSC</t>
+  </si>
+  <si>
+    <t>Responsabilità civile</t>
+  </si>
+  <si>
+    <t>VIT</t>
+  </si>
+  <si>
+    <t>RMA</t>
+  </si>
+  <si>
+    <t>Centola</t>
+  </si>
+  <si>
+    <t>ongarello</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>serra</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Azienda</t>
+  </si>
+  <si>
+    <t>Compagnia</t>
+  </si>
+  <si>
+    <t>DannoTipo</t>
+  </si>
+  <si>
+    <t>ContraenteTipo</t>
+  </si>
+  <si>
+    <t>TipoDiIncarico</t>
+  </si>
+  <si>
+    <t>Agenzia</t>
+  </si>
+  <si>
+    <t>Riserva</t>
+  </si>
+  <si>
+    <t>Authority</t>
+  </si>
+  <si>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t>Amministratore</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>PortaleDiProvenienza</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>PrioritaCompagnia</t>
+  </si>
+  <si>
+    <t>AgenziaEsclusiva</t>
+  </si>
+  <si>
+    <t>AmministratoreEsclusivo</t>
+  </si>
+  <si>
+    <t>contraente o assicurato in esclusiva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -149,9 +248,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -486,72 +586,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE88A2E-37D4-F745-8E0C-CF21D2FAD894}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>20001</v>
-      </c>
-      <c r="J1">
-        <v>300000</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -585,91 +701,243 @@
       <c r="O2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>20001</v>
+      </c>
+      <c r="J3">
+        <v>300000</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>10000</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>20001</v>
-      </c>
-      <c r="J4">
-        <v>300000</v>
-      </c>
-      <c r="O4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>20001</v>
+      </c>
+      <c r="J5">
+        <v>300000</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="O6" t="s">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>200</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>3000</v>
+      </c>
+      <c r="O9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/dmn/test/new_UserQualifications-MasterGlobalDef304_test.xlsx
+++ b/dmn/test/new_UserQualifications-MasterGlobalDef304_test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauriziocaronni/Projects/DmnEngine/dmn/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD5B8E0-6EC6-3048-856E-4CC35E1FCE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F898E04-E362-C44B-A29F-058A95850182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4480" yWindow="500" windowWidth="31360" windowHeight="20200" xr2:uid="{E34855F7-CB3F-8345-982A-7C4A7DDB4B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -588,9 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE88A2E-37D4-F745-8E0C-CF21D2FAD894}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -943,4 +942,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A57376-5D97-1245-B0A7-A69FA97A11B4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>